--- a/datasheets/Daux_et_al_2005.xlsx
+++ b/datasheets/Daux_et_al_2005.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="79">
   <si>
     <t xml:space="preserve">Collection number</t>
   </si>
@@ -154,6 +154,9 @@
     <t xml:space="preserve">DOI</t>
   </si>
   <si>
+    <t xml:space="preserve">refShort</t>
+  </si>
+  <si>
     <t xml:space="preserve">Homo sapiens</t>
   </si>
   <si>
@@ -188,6 +191,9 @@
   </si>
   <si>
     <t xml:space="preserve">10.1007/s10584-005-5385-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daux et al. (2005)</t>
   </si>
   <si>
     <t xml:space="preserve">Nomexy</t>
@@ -368,31 +374,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -413,10 +419,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AR115"/>
+  <dimension ref="A1:AS115"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AJ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AR2" activeCellId="0" sqref="AR2:AR59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AS2" activeCellId="0" sqref="AS2:AS59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -448,10 +454,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="48.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="23.83"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1027" min="45" style="1" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="15.61"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1027" min="46" style="1" width="11.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -584,40 +591,43 @@
       <c r="AR1" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="AS1" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K2" s="5" t="n">
         <v>17.4</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N2" s="5" t="n">
         <v>21.7</v>
@@ -681,45 +691,48 @@
         <v>-10.5</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K3" s="5" t="n">
         <v>17.6</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N3" s="5" t="n">
         <v>21.7</v>
@@ -783,45 +796,48 @@
         <v>-10.5</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>16.7</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N4" s="5" t="n">
         <v>21.7</v>
@@ -885,45 +901,48 @@
         <v>-10.5</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>18</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N5" s="5" t="n">
         <v>21.7</v>
@@ -987,45 +1006,48 @@
         <v>-10.5</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K6" s="5" t="n">
         <v>16.6</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N6" s="5" t="n">
         <v>21.7</v>
@@ -1089,45 +1111,48 @@
         <v>-11.5</v>
       </c>
       <c r="AQ6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS6" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>17.3</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N7" s="5" t="n">
         <v>21.7</v>
@@ -1191,45 +1216,48 @@
         <v>-11.5</v>
       </c>
       <c r="AQ7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS7" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>17.6</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N8" s="5" t="n">
         <v>21.7</v>
@@ -1293,45 +1321,48 @@
         <v>-11.5</v>
       </c>
       <c r="AQ8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS8" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="AR8" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K9" s="5" t="n">
         <v>17.1</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N9" s="5" t="n">
         <v>21.7</v>
@@ -1395,45 +1426,48 @@
         <v>-10.6</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>17.2</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N10" s="5" t="n">
         <v>21.7</v>
@@ -1497,45 +1531,48 @@
         <v>-10.6</v>
       </c>
       <c r="AQ10" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AR10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS10" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>17.4</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N11" s="5" t="n">
         <v>21.7</v>
@@ -1599,45 +1636,48 @@
         <v>-10.6</v>
       </c>
       <c r="AQ11" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AR11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS11" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K12" s="5" t="n">
         <v>15.9</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N12" s="5" t="n">
         <v>21.7</v>
@@ -1701,45 +1741,48 @@
         <v>-10.6</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AR12" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS12" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K13" s="1" t="n">
         <v>17.4</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N13" s="5" t="n">
         <v>21.7</v>
@@ -1802,45 +1845,48 @@
         <v>-10.6</v>
       </c>
       <c r="AQ13" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS13" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K14" s="1" t="n">
         <v>17.4</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N14" s="5" t="n">
         <v>21.7</v>
@@ -1903,45 +1949,48 @@
         <v>-10.6</v>
       </c>
       <c r="AQ14" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AR14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS14" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K15" s="1" t="n">
         <v>18.4</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N15" s="5" t="n">
         <v>21.7</v>
@@ -2004,45 +2053,48 @@
         <v>-10.6</v>
       </c>
       <c r="AQ15" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AR15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS15" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K16" s="1" t="n">
         <v>17.2</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N16" s="5" t="n">
         <v>21.7</v>
@@ -2105,45 +2157,48 @@
         <v>-10.6</v>
       </c>
       <c r="AQ16" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AR16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS16" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K17" s="1" t="n">
         <v>17.2</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N17" s="5" t="n">
         <v>21.7</v>
@@ -2206,45 +2261,48 @@
         <v>-10.6</v>
       </c>
       <c r="AQ17" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AR17" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS17" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K18" s="1" t="n">
         <v>17.6</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N18" s="5" t="n">
         <v>21.7</v>
@@ -2307,45 +2365,48 @@
         <v>-10.6</v>
       </c>
       <c r="AQ18" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AR18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS18" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>17.5</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N19" s="5" t="n">
         <v>21.7</v>
@@ -2409,45 +2470,48 @@
         <v>-11.3</v>
       </c>
       <c r="AQ19" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AR19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS19" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>17.5</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N20" s="5" t="n">
         <v>21.7</v>
@@ -2511,45 +2575,48 @@
         <v>-11.3</v>
       </c>
       <c r="AQ20" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AR20" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS20" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K21" s="5" t="n">
         <v>17.4</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N21" s="5" t="n">
         <v>21.7</v>
@@ -2613,45 +2680,48 @@
         <v>-11.3</v>
       </c>
       <c r="AQ21" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AR21" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS21" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>17.1</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N22" s="5" t="n">
         <v>21.7</v>
@@ -2715,45 +2785,48 @@
         <v>-11.3</v>
       </c>
       <c r="AQ22" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AR22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS22" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K23" s="5" t="n">
         <v>17.2</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N23" s="5" t="n">
         <v>21.7</v>
@@ -2817,45 +2890,48 @@
         <v>-10.5</v>
       </c>
       <c r="AQ23" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AR23" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS23" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K24" s="5" t="n">
         <v>15.2</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N24" s="5" t="n">
         <v>21.7</v>
@@ -2919,45 +2995,48 @@
         <v>-10.5</v>
       </c>
       <c r="AQ24" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AR24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS24" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>15.8</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N25" s="5" t="n">
         <v>21.7</v>
@@ -3021,45 +3100,48 @@
         <v>-10.5</v>
       </c>
       <c r="AQ25" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AR25" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS25" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K26" s="5" t="n">
         <v>15.6</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N26" s="5" t="n">
         <v>21.7</v>
@@ -3123,45 +3205,48 @@
         <v>-10.5</v>
       </c>
       <c r="AQ26" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AR26" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS26" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K27" s="5" t="n">
         <v>17</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N27" s="5" t="n">
         <v>21.7</v>
@@ -3225,45 +3310,48 @@
         <v>-10.5</v>
       </c>
       <c r="AQ27" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AR27" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS27" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>18.5</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N28" s="5" t="n">
         <v>21.7</v>
@@ -3327,45 +3415,48 @@
         <v>-10.6</v>
       </c>
       <c r="AQ28" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AR28" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS28" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K29" s="5" t="n">
         <v>18</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N29" s="5" t="n">
         <v>21.7</v>
@@ -3429,45 +3520,48 @@
         <v>-11.1</v>
       </c>
       <c r="AQ29" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AR29" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS29" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K30" s="5" t="n">
         <v>17.3</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N30" s="5" t="n">
         <v>21.7</v>
@@ -3531,45 +3625,48 @@
         <v>-11.1</v>
       </c>
       <c r="AQ30" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AR30" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS30" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K31" s="5" t="n">
         <v>17.3</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N31" s="5" t="n">
         <v>21.7</v>
@@ -3633,45 +3730,48 @@
         <v>-11.1</v>
       </c>
       <c r="AQ31" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AR31" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS31" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K32" s="5" t="n">
         <v>17.3</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N32" s="5" t="n">
         <v>21.7</v>
@@ -3735,45 +3835,48 @@
         <v>-11.1</v>
       </c>
       <c r="AQ32" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AR32" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS32" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K33" s="5" t="n">
         <v>17.7</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N33" s="5" t="n">
         <v>21.7</v>
@@ -3837,45 +3940,48 @@
         <v>-11.1</v>
       </c>
       <c r="AQ33" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AR33" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS33" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K34" s="5" t="n">
         <v>17.7</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N34" s="5" t="n">
         <v>21.7</v>
@@ -3939,45 +4045,48 @@
         <v>-10.4</v>
       </c>
       <c r="AQ34" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AR34" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS34" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K35" s="5" t="n">
         <v>16.7</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N35" s="5" t="n">
         <v>21.7</v>
@@ -4041,45 +4150,48 @@
         <v>-10.4</v>
       </c>
       <c r="AQ35" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AR35" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS35" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K36" s="5" t="n">
         <v>17.2</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N36" s="5" t="n">
         <v>21.7</v>
@@ -4143,45 +4255,48 @@
         <v>-10.4</v>
       </c>
       <c r="AQ36" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AR36" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS36" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K37" s="5" t="n">
         <v>16.9</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N37" s="5" t="n">
         <v>21.7</v>
@@ -4245,45 +4360,48 @@
         <v>-10.4</v>
       </c>
       <c r="AQ37" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AR37" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS37" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K38" s="5" t="n">
         <v>17.6</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N38" s="5" t="n">
         <v>21.7</v>
@@ -4347,45 +4465,48 @@
         <v>-10.4</v>
       </c>
       <c r="AQ38" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AR38" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS38" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K39" s="5" t="n">
         <v>19.2</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N39" s="5" t="n">
         <v>21.7</v>
@@ -4449,45 +4570,48 @@
         <v>-10.4</v>
       </c>
       <c r="AQ39" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AR39" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS39" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K40" s="5" t="n">
         <v>18.3</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N40" s="5" t="n">
         <v>21.7</v>
@@ -4551,45 +4675,48 @@
         <v>-10.4</v>
       </c>
       <c r="AQ40" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AR40" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS40" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K41" s="5" t="n">
         <v>18.3</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N41" s="5" t="n">
         <v>21.7</v>
@@ -4653,45 +4780,48 @@
         <v>-10.4</v>
       </c>
       <c r="AQ41" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AR41" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS41" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K42" s="5" t="n">
         <v>17.6</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N42" s="5" t="n">
         <v>21.7</v>
@@ -4755,45 +4885,48 @@
         <v>-10.4</v>
       </c>
       <c r="AQ42" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AR42" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS42" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K43" s="5" t="n">
         <v>18.6</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N43" s="5" t="n">
         <v>21.7</v>
@@ -4857,45 +4990,48 @@
         <v>-10.4</v>
       </c>
       <c r="AQ43" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AR43" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS43" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K44" s="5" t="n">
         <v>16.3</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N44" s="5" t="n">
         <v>21.7</v>
@@ -4959,45 +5095,48 @@
         <v>-11.8</v>
       </c>
       <c r="AQ44" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AR44" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS44" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K45" s="5" t="n">
         <v>17.1</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N45" s="5" t="n">
         <v>21.7</v>
@@ -5061,45 +5200,48 @@
         <v>-11.8</v>
       </c>
       <c r="AQ45" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AR45" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS45" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K46" s="5" t="n">
         <v>18.1</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N46" s="5" t="n">
         <v>21.7</v>
@@ -5163,45 +5305,48 @@
         <v>-11.8</v>
       </c>
       <c r="AQ46" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AR46" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS46" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K47" s="5" t="n">
         <v>17.4</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N47" s="5" t="n">
         <v>21.7</v>
@@ -5265,45 +5410,48 @@
         <v>-11.8</v>
       </c>
       <c r="AQ47" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AR47" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS47" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K48" s="5" t="n">
         <v>17.3</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N48" s="5" t="n">
         <v>21.7</v>
@@ -5367,45 +5515,48 @@
         <v>-11.8</v>
       </c>
       <c r="AQ48" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AR48" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS48" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K49" s="5" t="n">
         <v>17</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N49" s="5" t="n">
         <v>21.7</v>
@@ -5469,45 +5620,48 @@
         <v>-12.3</v>
       </c>
       <c r="AQ49" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AR49" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS49" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K50" s="5" t="n">
         <v>17.3</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N50" s="5" t="n">
         <v>21.7</v>
@@ -5571,45 +5725,48 @@
         <v>-12.3</v>
       </c>
       <c r="AQ50" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AR50" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS50" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K51" s="5" t="n">
         <v>17.3</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N51" s="5" t="n">
         <v>21.7</v>
@@ -5673,45 +5830,48 @@
         <v>-12.3</v>
       </c>
       <c r="AQ51" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AR51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS51" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K52" s="5" t="n">
         <v>16.3</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N52" s="5" t="n">
         <v>21.7</v>
@@ -5775,45 +5935,48 @@
         <v>-12.3</v>
       </c>
       <c r="AQ52" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AR52" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS52" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K53" s="5" t="n">
         <v>16.2</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N53" s="5" t="n">
         <v>21.7</v>
@@ -5877,45 +6040,48 @@
         <v>-12.3</v>
       </c>
       <c r="AQ53" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AR53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS53" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K54" s="5" t="n">
         <v>16.4</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N54" s="5" t="n">
         <v>21.7</v>
@@ -5979,45 +6145,48 @@
         <v>-12.3</v>
       </c>
       <c r="AQ54" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AR54" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS54" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K55" s="1" t="n">
         <v>14.1</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M55" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N55" s="5" t="n">
         <v>21.7</v>
@@ -6081,45 +6250,48 @@
         <v>-16.1</v>
       </c>
       <c r="AQ55" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AR55" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS55" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K56" s="1" t="n">
         <v>15</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M56" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N56" s="5" t="n">
         <v>21.7</v>
@@ -6184,45 +6356,48 @@
         <v>-16.1</v>
       </c>
       <c r="AQ56" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AR56" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS56" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K57" s="1" t="n">
         <v>15.3</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M57" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N57" s="5" t="n">
         <v>21.7</v>
@@ -6287,45 +6462,48 @@
         <v>-16.1</v>
       </c>
       <c r="AQ57" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AR57" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS57" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K58" s="1" t="n">
         <v>14.4</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N58" s="5" t="n">
         <v>21.7</v>
@@ -6390,45 +6568,48 @@
         <v>-16.1</v>
       </c>
       <c r="AQ58" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AR58" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS58" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K59" s="1" t="n">
         <v>15.3</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N59" s="5" t="n">
         <v>21.7</v>
@@ -6493,10 +6674,13 @@
         <v>-16.1</v>
       </c>
       <c r="AQ59" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AR59" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS59" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
